--- a/story/Main Story and Others 主线剧情等/guide 导航文字/shop/1_furni.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/shop/1_furni.xlsx
@@ -114,11 +114,11 @@
     <t>[PopupDialog(dialogHead="$avatar_closure")] 今だったらちょうどフェンにぴったりの新しい服があるよ！オープン記念にタダであげちゃう！ドクターからプレゼントしてあげてね。きっと喜ぶよ！</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Dr. {@nickname}, how do you like the Dormitory? I feel like you’d be able to spruce the place up a bit more…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] I’ve requested for some new goods from one of the famous furniture outlets in my hometown.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Dr. {@nickname}, how do you like the Dormitory? I feel like you'd be able to spruce the place up a bit more...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] I've requested for some new goods from one of the famous furniture outlets in my hometown.
 </t>
   </si>
   <si>
